--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="421">
   <si>
     <t>Property</t>
   </si>
@@ -285,7 +285,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -460,72 +460,13 @@
     <t>健康保険における被保険者証記号を示す拡張</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.
-健康保険における被保険者証記号を示す拡張</t>
+    <t>健康保険における被保険者証記号を示す拡張。被保険者記号の全角文字列。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Coverage.extension.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Coverage.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Coverage.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonSymbol</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Coverage.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>A stream of bytes, base64 encoded
-被保険者記号の文字列。</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
     <t>insuredPersonNumber</t>
   </si>
   <si>
@@ -539,15 +480,7 @@
     <t>健康保険における被保険者証番号を示す拡張</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.
-健康保険における被保険者証番号を示す拡張</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonNumber</t>
-  </si>
-  <si>
-    <t>A stream of bytes, base64 encoded
-被保険者番号</t>
+    <t>健康保険における被保険者証番号を示す拡張。被保険者記号の全角文字列。</t>
   </si>
   <si>
     <t>insuredPersonSubNumber</t>
@@ -563,16 +496,7 @@
     <t>健康保険における被保険者証番号の枝番を示す拡張</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.
-健康保険における被保険者証番号の枝番を示す拡張
-枝番号は2桁。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonSubNumber</t>
-  </si>
-  <si>
-    <t>A stream of bytes, base64 encoded
-2桁の半角数字文字列。一桁の場合には先頭に０をつけて2桁にする。</t>
+    <t>健康保険における被保険者証番号を示す拡張。2桁の全角数字文字列。一桁の場合には先頭に０をつけて2桁にする。</t>
   </si>
   <si>
     <t>Coverage.modifierExtension</t>
@@ -605,7 +529,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for the coverage　このカバレッジに割り当てられた一意の識別子。</t>
+    <t>Business Identifier for the coverage　このカバレッジに割り当てられた一意の識別子。【詳細参照】</t>
   </si>
   <si>
     <t>A unique identifier assigned to this coverage.
@@ -613,7 +537,10 @@
   </si>
   <si>
     <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependent.
-カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバーID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。 Coverage.SubscriberIDとCoverage.dependentの連結として構築できる。</t>
+カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバーID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。
+【JP Core仕様】被保険者記号と番号と枝番を全角にした上でダブルコーテーションで囲い、カンマ区切りで連結する。
+ルール："{被保険者記号}","{被保険者番号}","{枝番}"
+例："１２－３４","５６７８","００"</t>
   </si>
   <si>
     <t>Allows coverages to be distinguished and referenced.
@@ -750,7 +677,7 @@
 </t>
   </si>
   <si>
-    <t>Subscriber to the policy　契約当事者</t>
+    <t>Subscriber to the policy　被保険者</t>
   </si>
   <si>
     <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.
@@ -762,24 +689,29 @@
   </si>
   <si>
     <t>This is the party who is entitled to the benefits under the policy.
-これは、ポリシーに基づいて給付を受ける権利を有する当事者である。
-【JP Core仕様】公費情報で本リソースを使用する場合には、この要素に公費受給者番号を設定する。</t>
+これは、ポリシーに基づいて給付を受ける権利を有する当事者である。</t>
   </si>
   <si>
     <t>Coverage.subscriberId</t>
   </si>
   <si>
-    <t>ID assigned to the subscriber　契約当事者に割り当てられたID</t>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>ID assigned to the subscriber　被保険者に割り当てられたID</t>
   </si>
   <si>
     <t>The insurer assigned ID for the Subscriber.
-契約当事者に保険者が割り当てたID</t>
+被保険者に保険者が割り当てたID</t>
   </si>
   <si>
     <t>The insurer requires this identifier on correspondence and claims (digital and otherwise).
 保険者は、連絡や請求（デジタルおよびその他）でこの識別子を要求する。
 保険会社は、通信および請求（デジタルおよびその他）でこの識別子を要求する。
-被保険者番号を全角で格納する</t>
+【JP Core仕様】被保険者記号と番号を全角にした上でダブルコーテーションで囲い、カンマ区切りで連結する。
+ルール："{被保険者記号}","{被保険者番号}"
+例："１２－３４","５６７８"</t>
   </si>
   <si>
     <t>Coverage.beneficiary</t>
@@ -811,21 +743,22 @@
     <t>Coverage.dependent</t>
   </si>
   <si>
-    <t>Dependent number</t>
+    <t>被保険者証 枝番</t>
   </si>
   <si>
     <t>A unique identifier for a dependent under the coverage.
-補償対象の被扶養者の一意の識別子。</t>
+被保険者証の枝番。</t>
   </si>
   <si>
     <t>Periodically the member number is constructed from the subscriberId and the dependent number.
-定期的に subscriberId と従属番号からメンバー番号を構築する。</t>
+被保険者証の枝番を全角で格納する。</t>
   </si>
   <si>
     <t>For some coverages a single identifier is issued to the Subscriber and then a unique dependent number is issued to each beneficiary.
 一部の補償では、単一の識別子が加入者に発行され、次に一意の従属番号が各受益者に発行される。
 一部の保険では、単一の識別子が加入者に発行され、その後、各受益者に固有の扶養番号が発行される。
-【JP Core仕様】医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号2桁を設定する。</t>
+【JP Core仕様】医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号全角2桁を設定する。
+例："００"</t>
   </si>
   <si>
     <t>C17</t>
@@ -968,6 +901,18 @@
     <t>Coverage.class.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Coverage.class.extension</t>
   </si>
   <si>
@@ -975,6 +920,9 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Coverage.class.modifierExtension</t>
@@ -1159,6 +1107,9 @@
   </si>
   <si>
     <t>Coverage.costToBeneficiary.type.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.type.coding</t>
@@ -1765,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO70"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2993,9 +2944,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>78</v>
       </c>
@@ -3004,7 +2957,7 @@
         <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -3016,15 +2969,17 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3073,25 +3028,25 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>78</v>
@@ -3108,9 +3063,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3119,7 +3076,7 @@
         <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -3131,15 +3088,17 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3176,19 +3135,19 @@
         <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3197,7 +3156,7 @@
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>138</v>
@@ -3223,47 +3182,49 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>78</v>
@@ -3305,19 +3266,19 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -3340,7 +3301,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3351,7 +3312,7 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3360,21 +3321,23 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3422,13 +3385,13 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
@@ -3437,63 +3400,63 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3517,13 +3480,13 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
@@ -3541,28 +3504,28 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3576,7 +3539,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3596,19 +3559,23 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3632,13 +3599,13 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
@@ -3656,7 +3623,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -3668,22 +3635,22 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3691,7 +3658,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3702,7 +3669,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -3711,19 +3678,23 @@
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3759,31 +3730,31 @@
         <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -3792,21 +3763,21 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3814,7 +3785,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -3826,27 +3797,29 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>78</v>
@@ -3888,10 +3861,10 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -3900,30 +3873,30 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3943,21 +3916,21 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4005,7 +3978,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4023,37 +3996,35 @@
         <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -4062,21 +4033,23 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4124,42 +4097,42 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4179,19 +4152,23 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4239,7 +4216,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4251,22 +4228,22 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4274,7 +4251,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4285,7 +4262,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4297,16 +4274,20 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4330,43 +4311,43 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4378,7 +4359,7 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4389,7 +4370,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4397,7 +4378,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
@@ -4409,27 +4390,29 @@
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>78</v>
@@ -4471,10 +4454,10 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
@@ -4483,22 +4466,22 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4506,7 +4489,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4514,10 +4497,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4526,21 +4509,23 @@
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4588,13 +4573,13 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
@@ -4606,28 +4591,28 @@
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4640,25 +4625,25 @@
         <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -4707,7 +4692,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4719,13 +4704,13 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
@@ -4742,7 +4727,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4753,7 +4738,7 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -4762,23 +4747,19 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4826,78 +4807,76 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4921,13 +4900,13 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4945,28 +4924,28 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4980,42 +4959,42 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5040,13 +5019,13 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>78</v>
@@ -5064,34 +5043,34 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5099,7 +5078,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5107,7 +5086,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5122,19 +5101,19 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
@@ -5159,13 +5138,13 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -5183,10 +5162,10 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5204,21 +5183,21 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5226,7 +5205,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
@@ -5241,19 +5220,19 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
@@ -5302,10 +5281,10 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5323,21 +5302,21 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>227</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5360,17 +5339,17 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>78</v>
@@ -5419,7 +5398,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5440,21 +5419,21 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>227</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5462,7 +5441,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5477,19 +5456,19 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5538,10 +5517,10 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -5553,27 +5532,27 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5596,19 +5575,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>78</v>
@@ -5657,7 +5634,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5681,10 +5658,10 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5692,18 +5669,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -5715,19 +5692,19 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -5752,13 +5729,13 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -5776,13 +5753,13 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
@@ -5800,7 +5777,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5811,7 +5788,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5831,23 +5808,19 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5895,7 +5868,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5907,22 +5880,22 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -5930,15 +5903,15 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>80</v>
@@ -5950,23 +5923,21 @@
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6014,10 +5985,10 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6026,34 +5997,34 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6066,25 +6037,25 @@
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6133,7 +6104,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6145,13 +6116,13 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -6168,7 +6139,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6188,19 +6159,23 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>146</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6224,13 +6199,13 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>78</v>
@@ -6248,7 +6223,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6260,13 +6235,13 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -6283,18 +6258,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6306,17 +6281,15 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>78</v>
@@ -6365,25 +6338,25 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
@@ -6400,11 +6373,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6417,26 +6390,24 @@
         <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6472,19 +6443,19 @@
         <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6502,7 +6473,7 @@
         <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
@@ -6519,7 +6490,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6527,10 +6498,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6542,19 +6513,19 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -6579,13 +6550,13 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>78</v>
@@ -6603,13 +6574,13 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
@@ -6621,7 +6592,7 @@
         <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
@@ -6630,7 +6601,7 @@
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6638,7 +6609,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6646,7 +6617,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -6658,23 +6629,19 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6722,10 +6689,10 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
@@ -6734,41 +6701,41 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -6777,21 +6744,21 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6827,54 +6794,54 @@
         <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6897,19 +6864,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>316</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6958,7 +6925,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6976,7 +6943,7 @@
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -6985,7 +6952,7 @@
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>251</v>
+        <v>346</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -6993,7 +6960,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7016,18 +6983,18 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7075,7 +7042,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7093,16 +7060,16 @@
         <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7110,18 +7077,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7130,22 +7097,22 @@
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7194,13 +7161,13 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
@@ -7212,7 +7179,7 @@
         <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
@@ -7221,7 +7188,7 @@
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7229,7 +7196,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7249,19 +7216,21 @@
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>146</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>147</v>
+        <v>364</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7309,7 +7278,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>148</v>
+        <v>366</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7321,13 +7290,13 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>149</v>
+        <v>367</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -7336,7 +7305,7 @@
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7344,18 +7313,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7364,21 +7333,23 @@
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>132</v>
+        <v>370</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7426,25 +7397,25 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>152</v>
+        <v>375</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>149</v>
+        <v>376</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
@@ -7453,7 +7424,7 @@
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7461,42 +7432,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>182</v>
+        <v>381</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>183</v>
+        <v>382</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7545,25 +7516,25 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>130</v>
+        <v>384</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
@@ -7572,7 +7543,7 @@
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7580,7 +7551,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7588,7 +7559,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>87</v>
@@ -7603,19 +7574,19 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>209</v>
+        <v>387</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7640,13 +7611,13 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
@@ -7664,10 +7635,10 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>87</v>
@@ -7688,18 +7659,18 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7710,7 +7681,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7722,16 +7693,18 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>146</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>147</v>
+        <v>394</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7779,25 +7752,25 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>148</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
@@ -7814,18 +7787,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -7837,17 +7810,15 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7884,37 +7855,37 @@
         <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
@@ -7931,11 +7902,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7951,23 +7922,21 @@
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>346</v>
+        <v>271</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8015,7 +7984,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8027,13 +7996,13 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>351</v>
+        <v>269</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
@@ -8042,7 +8011,7 @@
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8050,39 +8019,43 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8130,25 +8103,25 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
@@ -8165,18 +8138,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8185,21 +8158,21 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>289</v>
+        <v>399</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8223,49 +8196,49 @@
         <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>152</v>
+        <v>398</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
@@ -8282,7 +8255,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8305,19 +8278,17 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8366,7 +8337,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8384,7 +8355,7 @@
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8393,7 +8364,7 @@
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8401,7 +8372,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8421,21 +8392,23 @@
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>370</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8483,7 +8456,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8501,7 +8474,7 @@
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8510,7 +8483,7 @@
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8518,7 +8491,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8529,7 +8502,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8538,22 +8511,22 @@
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>107</v>
+        <v>415</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8602,13 +8575,13 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
@@ -8620,1433 +8593,19 @@
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
